--- a/medicine/Mort/Cimetière_de_Wannsee_(Lindenstraße)/Cimetière_de_Wannsee_(Lindenstraße).xlsx
+++ b/medicine/Mort/Cimetière_de_Wannsee_(Lindenstraße)/Cimetière_de_Wannsee_(Lindenstraße).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Wannsee_(Lindenstra%C3%9Fe)</t>
+          <t>Cimetière_de_Wannsee_(Lindenstraße)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Wannsee, Lindenstrasse est situé dans le quartier berlinois de Wannsee, Lindenstrasse 1/2. Il est créé en 1886 pour les habitants de la colonie d'Alsen (de). Pour le distinguer de l'ancien cimetière de Wannsee sur la Friedenstrasse, il est traditionnellement appelé le nouveau cimetière de Wannsee ou cimetière de Wannsee II.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Wannsee_(Lindenstra%C3%9Fe)</t>
+          <t>Cimetière_de_Wannsee_(Lindenstraße)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le banquier et fondateur de la colonie d'Alsen Wilhelm Conrad (de) est également membre du Club de Berlin (de)[1],[2]. Il a su inspirer de nombreux membres du club avec l'idée de passer l'été loin de la ville, au bord du lac de Wannsee, et d'y faire ses achats. Il veut créer lui-même l'ambiance exclusive. La connexion avec la ville de Berlin grâce à la création de la ligne du Wannsee conduit à la transformation des résidences d'été en complexes résidentiels permanents représentatifs, ce qui rend probablement nécessaire également un cimetière. Étant donné que de nombreux membres du club sont des juifs baptisés ayant des parents non baptisés, lui et Oscar Huldschinsky (de) veillent à ce que ce cimetière soit créé pour toutes les confessions. Un petit symbole sur le mur du cimetière – une croix chrétienne reliée à une étoile de David – témoigne encore aujourd’hui de cette approche atypique et pragmatique[3]. Otto Stahn (de), qui est également enterré ici, construit la chapelle du cimetière. En 1918, le mur d'enceinte ouest est percé et le cimetière est agrandi d'environ trois acres et demi (9 000 m²) de terrain[4].
-Des tombes de guerre sous forme de tombes individuelles sont disposées le long d'un mur. Pour beaucoup, le rang pourrait être précisé par le Volksbund. Au total, 75 morts de guerre y reposent, dont 26 inconnus. Il y a un monument à côté de l'église[5].
-Le nouveau cimetière est déclaré monument du mois de mars 2019 par le bureau du district de Steglitz-Zehlendorf[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le banquier et fondateur de la colonie d'Alsen Wilhelm Conrad (de) est également membre du Club de Berlin (de),. Il a su inspirer de nombreux membres du club avec l'idée de passer l'été loin de la ville, au bord du lac de Wannsee, et d'y faire ses achats. Il veut créer lui-même l'ambiance exclusive. La connexion avec la ville de Berlin grâce à la création de la ligne du Wannsee conduit à la transformation des résidences d'été en complexes résidentiels permanents représentatifs, ce qui rend probablement nécessaire également un cimetière. Étant donné que de nombreux membres du club sont des juifs baptisés ayant des parents non baptisés, lui et Oscar Huldschinsky (de) veillent à ce que ce cimetière soit créé pour toutes les confessions. Un petit symbole sur le mur du cimetière – une croix chrétienne reliée à une étoile de David – témoigne encore aujourd’hui de cette approche atypique et pragmatique. Otto Stahn (de), qui est également enterré ici, construit la chapelle du cimetière. En 1918, le mur d'enceinte ouest est percé et le cimetière est agrandi d'environ trois acres et demi (9 000 m²) de terrain.
+Des tombes de guerre sous forme de tombes individuelles sont disposées le long d'un mur. Pour beaucoup, le rang pourrait être précisé par le Volksbund. Au total, 75 morts de guerre y reposent, dont 26 inconnus. Il y a un monument à côté de l'église.
+Le nouveau cimetière est déclaré monument du mois de mars 2019 par le bureau du district de Steglitz-Zehlendorf.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Wannsee_(Lindenstra%C3%9Fe)</t>
+          <t>Cimetière_de_Wannsee_(Lindenstraße)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Tombes de personnalités notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(* = tombe honorifique de l'État de Berlin)
 Eduard Arnhold* (1849-1925), baron du charbon, mécène et collectionneur d'art
@@ -554,7 +570,7 @@
 Hermann Ende* (1829-1907), architecte
 Nelson Faßbender, fabricant de pralines avec 50 succursales
 Hermine Feist (1855-1933), autrefois la plus importante collectionneuse privée de porcelaine, fille du grossiste en charbon Caesar Wollheim (de), mourut pauvre.
-Emil Fischer* (1852-1919), chimiste, prix Nobel[7]
+Emil Fischer* (1852-1919), chimiste, prix Nobel
 Wolfgang Giloi (de) (1930-2009), informaticien
 Richard Greeff (de)* (1862-1938), ophtalmologiste, directeur de la clinique ophtalmologique de la Charité
 Robert Guthmann, copropriétaire de l'usine à chaux de Rüdersdorf (de) et propriétaire du domaine de Neu-Kladow
